--- a/RESULTS/2018/B2 SET 6 [2.8..5.6] VIP=5/Fit Single.xlsx
+++ b/RESULTS/2018/B2 SET 6 [2.8..5.6] VIP=5/Fit Single.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="76">
   <si>
     <t>Feature index</t>
   </si>
@@ -191,10 +191,16 @@
     <t>003101</t>
   </si>
   <si>
-    <t>11Linear021155</t>
-  </si>
-  <si>
-    <t>002111</t>
+    <t>11Linear090055</t>
+  </si>
+  <si>
+    <t>009100</t>
+  </si>
+  <si>
+    <t>11Linear071155</t>
+  </si>
+  <si>
+    <t>007111</t>
   </si>
   <si>
     <t>11Linear051155</t>
@@ -203,70 +209,40 @@
     <t>005111</t>
   </si>
   <si>
-    <t>11Linear090055</t>
-  </si>
-  <si>
-    <t>009100</t>
-  </si>
-  <si>
     <t>11Linear020155</t>
   </si>
   <si>
     <t>002101</t>
   </si>
   <si>
+    <t>11Linear060055</t>
+  </si>
+  <si>
+    <t>006100</t>
+  </si>
+  <si>
     <t>11Linear011155</t>
   </si>
   <si>
     <t>001111</t>
   </si>
   <si>
-    <t>11Linear070055</t>
-  </si>
-  <si>
-    <t>007100</t>
-  </si>
-  <si>
-    <t>11Linear080155</t>
-  </si>
-  <si>
-    <t>008101</t>
-  </si>
-  <si>
-    <t>11Linear090155</t>
-  </si>
-  <si>
-    <t>009101</t>
-  </si>
-  <si>
-    <t>11Linear071155</t>
-  </si>
-  <si>
-    <t>007111</t>
-  </si>
-  <si>
-    <t>11Linear050155</t>
-  </si>
-  <si>
-    <t>005101</t>
+    <t>11Linear140155</t>
+  </si>
+  <si>
+    <t>014101</t>
+  </si>
+  <si>
+    <t>11Linear040155</t>
+  </si>
+  <si>
+    <t>004101</t>
   </si>
   <si>
     <t>11Linear120155</t>
   </si>
   <si>
     <t>012101</t>
-  </si>
-  <si>
-    <t>11Linear040155</t>
-  </si>
-  <si>
-    <t>004101</t>
-  </si>
-  <si>
-    <t>11Linear060055</t>
-  </si>
-  <si>
-    <t>006100</t>
   </si>
   <si>
     <t>11Linear150055</t>
@@ -1430,28 +1406,28 @@
       </c>
       <c r="K2" t="s"/>
       <c r="L2" t="n">
-        <v>3.698400079229586e-07</v>
+        <v>3.698400079229595e-07</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0006081447261326523</v>
+        <v>0.0006081447261326529</v>
       </c>
       <c r="N2" t="n">
-        <v>0.9129454830565058</v>
+        <v>0.9129454830565056</v>
       </c>
       <c r="O2" t="n">
-        <v>0.9124267868284412</v>
+        <v>0.912426786828441</v>
       </c>
       <c r="P2" t="n">
-        <v>4.390242064359614e-07</v>
+        <v>4.390242064359596e-07</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.0006625890177447566</v>
+        <v>0.0006625890177447553</v>
       </c>
       <c r="R2" t="n">
-        <v>0.8397074280061396</v>
+        <v>0.8397074280061403</v>
       </c>
       <c r="S2" t="n">
-        <v>0.8357001137062932</v>
+        <v>0.8357001137062938</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -1483,7 +1459,7 @@
         <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>0.2116549593227203</v>
+        <v>0.2116549593227205</v>
       </c>
       <c r="K3" t="s"/>
       <c r="L3" t="s"/>
@@ -1500,22 +1476,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="E4" t="n">
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="F4" t="s">
         <v>20</v>
       </c>
       <c r="G4" t="s">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="H4" t="n">
         <v>4</v>
@@ -1524,7 +1500,7 @@
         <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>0.03712419460368682</v>
+        <v>-0.05417831352079684</v>
       </c>
       <c r="K4" t="s"/>
       <c r="L4" t="s"/>
@@ -1541,22 +1517,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="C5" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E5" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="F5" t="s">
         <v>20</v>
       </c>
       <c r="G5" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="H5" t="n">
         <v>4</v>
@@ -1565,7 +1541,7 @@
         <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.05417831352079698</v>
+        <v>0.03712419460368677</v>
       </c>
       <c r="K5" t="s"/>
       <c r="L5" t="s"/>
@@ -1585,7 +1561,7 @@
         <v>30</v>
       </c>
       <c r="C6" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D6" t="s">
         <v>26</v>
@@ -1597,7 +1573,7 @@
         <v>20</v>
       </c>
       <c r="G6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="H6" t="n">
         <v>4</v>
@@ -1606,7 +1582,7 @@
         <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>0.05431704077107788</v>
+        <v>0.05431704077107785</v>
       </c>
       <c r="K6" t="s"/>
       <c r="L6" t="s"/>
@@ -1626,7 +1602,7 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="D7" t="s">
         <v>23</v>
@@ -1638,7 +1614,7 @@
         <v>20</v>
       </c>
       <c r="G7" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="H7" t="n">
         <v>1</v>
@@ -1647,7 +1623,7 @@
         <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>3.401111300859435</v>
+        <v>3.40111130085943</v>
       </c>
       <c r="K7" t="s"/>
       <c r="L7" t="s"/>
@@ -1763,32 +1739,32 @@
         <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.1348195662059723</v>
+        <v>-0.1348195662050902</v>
       </c>
       <c r="K2" t="s"/>
       <c r="L2" t="n">
-        <v>4.296410819396286e-07</v>
+        <v>4.296410819396281e-07</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0006554701228428559</v>
+        <v>0.0006554701228428555</v>
       </c>
       <c r="N2" t="n">
-        <v>0.8988692514436518</v>
+        <v>0.8988692514436519</v>
       </c>
       <c r="O2" t="n">
-        <v>0.8983676108258127</v>
+        <v>0.898367610825813</v>
       </c>
       <c r="P2" t="n">
-        <v>4.996215673196381e-07</v>
+        <v>4.996215673095191e-07</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.0007068391382200324</v>
+        <v>0.0007068391382128745</v>
       </c>
       <c r="R2" t="n">
-        <v>0.8175826642922246</v>
+        <v>0.8175826642959192</v>
       </c>
       <c r="S2" t="n">
-        <v>0.8137980722650924</v>
+        <v>0.8137980722688636</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -1820,7 +1796,7 @@
         <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>0.272649246305588</v>
+        <v>0.2726492463064317</v>
       </c>
       <c r="K3" t="s"/>
       <c r="L3" t="s"/>
@@ -1837,31 +1813,31 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E4" t="n">
-        <v>-7</v>
+        <v>-15</v>
       </c>
       <c r="F4" t="s">
         <v>20</v>
       </c>
       <c r="G4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>0.04201051759957518</v>
+        <v>10277.69134916474</v>
       </c>
       <c r="K4" t="s"/>
       <c r="L4" t="s"/>
@@ -1878,31 +1854,31 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="C5" t="s">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E5" t="n">
-        <v>-15</v>
+        <v>-7</v>
       </c>
       <c r="F5" t="s">
         <v>20</v>
       </c>
       <c r="G5" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I5" t="n">
         <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>10277.69134910159</v>
+        <v>0.04201051760098311</v>
       </c>
       <c r="K5" t="s"/>
       <c r="L5" t="s"/>
@@ -1922,7 +1898,7 @@
         <v>30</v>
       </c>
       <c r="C6" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D6" t="s">
         <v>26</v>
@@ -1934,7 +1910,7 @@
         <v>20</v>
       </c>
       <c r="G6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="H6" t="n">
         <v>4</v>
@@ -1943,7 +1919,7 @@
         <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>0.06622497858578824</v>
+        <v>0.06622497858468801</v>
       </c>
       <c r="K6" t="s"/>
       <c r="L6" t="s"/>
@@ -2059,14 +2035,14 @@
         <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.1325134176992472</v>
+        <v>-0.1325134176992471</v>
       </c>
       <c r="K2" t="s"/>
       <c r="L2" t="n">
-        <v>5.043479779660323e-07</v>
+        <v>5.043479779660325e-07</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0007101746108993423</v>
+        <v>0.0007101746108993424</v>
       </c>
       <c r="N2" t="n">
         <v>0.8812844239328294</v>
@@ -2075,16 +2051,16 @@
         <v>0.8808137972685393</v>
       </c>
       <c r="P2" t="n">
-        <v>5.889483826212498e-07</v>
+        <v>5.889483826212578e-07</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.0007674297248746948</v>
+        <v>0.0007674297248747001</v>
       </c>
       <c r="R2" t="n">
-        <v>0.7849684604218865</v>
+        <v>0.7849684604218836</v>
       </c>
       <c r="S2" t="n">
-        <v>0.7814142200982813</v>
+        <v>0.7814142200982783</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -2116,7 +2092,7 @@
         <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>0.2756345741681131</v>
+        <v>0.2756345741681127</v>
       </c>
       <c r="K3" t="s"/>
       <c r="L3" t="s"/>
@@ -2133,22 +2109,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C4" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="D4" t="s">
         <v>26</v>
       </c>
       <c r="E4" t="n">
-        <v>-5</v>
+        <v>-1</v>
       </c>
       <c r="F4" t="s">
         <v>20</v>
       </c>
       <c r="G4" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="H4" t="n">
         <v>4</v>
@@ -2157,7 +2133,7 @@
         <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>0.031422167345536</v>
+        <v>0.06311161778308777</v>
       </c>
       <c r="K4" t="s"/>
       <c r="L4" t="s"/>
@@ -2174,22 +2150,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C5" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D5" t="s">
         <v>26</v>
       </c>
       <c r="E5" t="n">
-        <v>-1</v>
+        <v>-5</v>
       </c>
       <c r="F5" t="s">
         <v>20</v>
       </c>
       <c r="G5" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="H5" t="n">
         <v>4</v>
@@ -2198,7 +2174,7 @@
         <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>0.06311161778308794</v>
+        <v>0.03142216734553605</v>
       </c>
       <c r="K5" t="s"/>
       <c r="L5" t="s"/>
@@ -2391,7 +2367,7 @@
         <v>30</v>
       </c>
       <c r="C4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D4" t="s">
         <v>26</v>
@@ -2403,7 +2379,7 @@
         <v>20</v>
       </c>
       <c r="G4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="H4" t="n">
         <v>4</v>
@@ -2507,7 +2483,7 @@
         <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="D2" t="s">
         <v>19</v>
@@ -2519,7 +2495,7 @@
         <v>20</v>
       </c>
       <c r="G2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="H2" t="n">
         <v>4</v>
@@ -2564,7 +2540,7 @@
         <v>34</v>
       </c>
       <c r="C3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D3" t="s">
         <v>26</v>
@@ -2576,7 +2552,7 @@
         <v>20</v>
       </c>
       <c r="G3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H3" t="n">
         <v>4</v>
@@ -3366,32 +3342,32 @@
         <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.1289439295032473</v>
+        <v>-0.1288574072448971</v>
       </c>
       <c r="K2" t="s"/>
       <c r="L2" t="n">
-        <v>3.426703662149279e-07</v>
+        <v>3.426721660621643e-07</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0005853805311205079</v>
+        <v>0.0005853820684494567</v>
       </c>
       <c r="N2" t="n">
-        <v>0.9193407890908739</v>
+        <v>0.9193403654351623</v>
       </c>
       <c r="O2" t="n">
-        <v>0.9182922193490552</v>
+        <v>0.9182917901858194</v>
       </c>
       <c r="P2" t="n">
-        <v>4.240661337476388e-07</v>
+        <v>4.232403002181441e-07</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.0006512036039117403</v>
+        <v>0.000650569212473311</v>
       </c>
       <c r="R2" t="n">
-        <v>0.8451687850523646</v>
+        <v>0.845470305967478</v>
       </c>
       <c r="S2" t="n">
-        <v>0.8365301335745995</v>
+        <v>0.8368484775450626</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -3423,7 +3399,7 @@
         <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>0.2493502917745048</v>
+        <v>0.2492448553312393</v>
       </c>
       <c r="K3" t="s"/>
       <c r="L3" t="s"/>
@@ -3440,22 +3416,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C4" t="s">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>26</v>
       </c>
       <c r="E4" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="F4" t="s">
         <v>20</v>
       </c>
       <c r="G4" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="H4" t="n">
         <v>4</v>
@@ -3464,7 +3440,7 @@
         <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>0.7422599953182241</v>
+        <v>17.08673202571313</v>
       </c>
       <c r="K4" t="s"/>
       <c r="L4" t="s"/>
@@ -3481,22 +3457,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C5" t="s">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="D5" t="s">
         <v>26</v>
       </c>
       <c r="E5" t="n">
-        <v>-5</v>
+        <v>-4</v>
       </c>
       <c r="F5" t="s">
         <v>20</v>
       </c>
       <c r="G5" t="s">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="H5" t="n">
         <v>4</v>
@@ -3505,7 +3481,7 @@
         <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>-363.514779794641</v>
+        <v>-144.6694849428834</v>
       </c>
       <c r="K5" t="s"/>
       <c r="L5" t="s"/>
@@ -3546,7 +3522,7 @@
         <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>2525.051343840061</v>
+        <v>5269.997915537212</v>
       </c>
       <c r="K6" t="s"/>
       <c r="L6" t="s"/>
@@ -3566,7 +3542,7 @@
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D7" t="s">
         <v>23</v>
@@ -3578,7 +3554,7 @@
         <v>20</v>
       </c>
       <c r="G7" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H7" t="n">
         <v>1</v>
@@ -3587,7 +3563,7 @@
         <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>38.89600869803539</v>
+        <v>38.79816599589503</v>
       </c>
       <c r="K7" t="s"/>
       <c r="L7" t="s"/>
@@ -3628,7 +3604,7 @@
         <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>1339530.567754414</v>
+        <v>646359.6813778271</v>
       </c>
       <c r="K8" t="s"/>
       <c r="L8" t="s"/>
@@ -3669,7 +3645,7 @@
         <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>-65827.15540053435</v>
+        <v>60617.12785346659</v>
       </c>
       <c r="K9" t="s"/>
       <c r="L9" t="s"/>
@@ -3686,22 +3662,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C10" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="D10" t="s">
         <v>26</v>
       </c>
       <c r="E10" t="n">
-        <v>-9</v>
+        <v>-7</v>
       </c>
       <c r="F10" t="s">
         <v>20</v>
       </c>
       <c r="G10" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="H10" t="n">
         <v>4</v>
@@ -3710,7 +3686,7 @@
         <v>1</v>
       </c>
       <c r="J10" t="n">
-        <v>339294.5749180682</v>
+        <v>-28620.25427231035</v>
       </c>
       <c r="K10" t="s"/>
       <c r="L10" t="s"/>
@@ -3751,7 +3727,7 @@
         <v>1</v>
       </c>
       <c r="J11" t="n">
-        <v>-876920.4130669106</v>
+        <v>-280422.0254160819</v>
       </c>
       <c r="K11" t="s"/>
       <c r="L11" t="s"/>
@@ -3792,7 +3768,7 @@
         <v>1</v>
       </c>
       <c r="J12" t="n">
-        <v>-1226053.938259738</v>
+        <v>-711663.590563153</v>
       </c>
       <c r="K12" t="s"/>
       <c r="L12" t="s"/>
@@ -3833,7 +3809,7 @@
         <v>1</v>
       </c>
       <c r="J13" t="n">
-        <v>623661.1351136544</v>
+        <v>402459.3983403978</v>
       </c>
       <c r="K13" t="s"/>
       <c r="L13" t="s"/>
@@ -3874,7 +3850,7 @@
         <v>1</v>
       </c>
       <c r="J14" t="n">
-        <v>-135904.2345442661</v>
+        <v>-93922.62037778279</v>
       </c>
       <c r="K14" t="s"/>
       <c r="L14" t="s"/>
@@ -3990,32 +3966,32 @@
         <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.08887531472365355</v>
+        <v>-0.1290636444238838</v>
       </c>
       <c r="K2" t="s"/>
       <c r="L2" t="n">
-        <v>3.415119271321653e-07</v>
+        <v>3.511380573957996e-07</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0005843902182036976</v>
+        <v>0.0005925690317556256</v>
       </c>
       <c r="N2" t="n">
-        <v>0.9196134674182531</v>
+        <v>0.9173476278601099</v>
       </c>
       <c r="O2" t="n">
-        <v>0.9186497927019884</v>
+        <v>0.9163567902320593</v>
       </c>
       <c r="P2" t="n">
-        <v>4.512255575069327e-07</v>
+        <v>4.643255041072828e-07</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.0006717332487728539</v>
+        <v>0.0006814143409903279</v>
       </c>
       <c r="R2" t="n">
-        <v>0.8352525803774786</v>
+        <v>0.8304696456263428</v>
       </c>
       <c r="S2" t="n">
-        <v>0.8268039947558108</v>
+        <v>0.8217757812994886</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -4047,7 +4023,7 @@
         <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>0.2083239060132253</v>
+        <v>0.2493681694604317</v>
       </c>
       <c r="K3" t="s"/>
       <c r="L3" t="s"/>
@@ -4064,22 +4040,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="C4" t="s">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E4" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="F4" t="s">
         <v>20</v>
       </c>
       <c r="G4" t="s">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="H4" t="n">
         <v>4</v>
@@ -4088,7 +4064,7 @@
         <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>-0.04962807739190914</v>
+        <v>27.7854009975785</v>
       </c>
       <c r="K4" t="s"/>
       <c r="L4" t="s"/>
@@ -4105,22 +4081,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D5" t="s">
         <v>26</v>
       </c>
       <c r="E5" t="n">
-        <v>-6</v>
+        <v>-4</v>
       </c>
       <c r="F5" t="s">
         <v>20</v>
       </c>
       <c r="G5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H5" t="n">
         <v>4</v>
@@ -4129,7 +4105,7 @@
         <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>29.95563043432553</v>
+        <v>-416.9497496368448</v>
       </c>
       <c r="K5" t="s"/>
       <c r="L5" t="s"/>
@@ -4146,22 +4122,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
+        <v>35</v>
+      </c>
+      <c r="C6" t="s">
         <v>30</v>
       </c>
-      <c r="C6" t="s">
-        <v>62</v>
-      </c>
       <c r="D6" t="s">
         <v>26</v>
       </c>
       <c r="E6" t="n">
-        <v>-1</v>
+        <v>-6</v>
       </c>
       <c r="F6" t="s">
         <v>20</v>
       </c>
       <c r="G6" t="s">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="H6" t="n">
         <v>4</v>
@@ -4170,7 +4146,7 @@
         <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>0.04350821439771319</v>
+        <v>-11940.56945769705</v>
       </c>
       <c r="K6" t="s"/>
       <c r="L6" t="s"/>
@@ -4187,22 +4163,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="D7" t="s">
         <v>23</v>
       </c>
       <c r="E7" t="n">
-        <v>-7</v>
+        <v>-9</v>
       </c>
       <c r="F7" t="s">
         <v>20</v>
       </c>
       <c r="G7" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="H7" t="n">
         <v>1</v>
@@ -4211,7 +4187,7 @@
         <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>9.166737118595362</v>
+        <v>39.68849609199496</v>
       </c>
       <c r="K7" t="s"/>
       <c r="L7" t="s"/>
@@ -4252,7 +4228,7 @@
         <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>26911.03750314834</v>
+        <v>6115.412731485823</v>
       </c>
       <c r="K8" t="s"/>
       <c r="L8" t="s"/>
@@ -4293,7 +4269,7 @@
         <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>-1624.416758377291</v>
+        <v>-48388.1701784108</v>
       </c>
       <c r="K9" t="s"/>
       <c r="L9" t="s"/>
@@ -4310,22 +4286,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C10" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="D10" t="s">
         <v>26</v>
       </c>
       <c r="E10" t="n">
-        <v>-9</v>
+        <v>-7</v>
       </c>
       <c r="F10" t="s">
         <v>20</v>
       </c>
       <c r="G10" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="H10" t="n">
         <v>4</v>
@@ -4334,7 +4310,7 @@
         <v>1</v>
       </c>
       <c r="J10" t="n">
-        <v>8747.913279129838</v>
+        <v>30272.3918131342</v>
       </c>
       <c r="K10" t="s"/>
       <c r="L10" t="s"/>
@@ -4375,7 +4351,7 @@
         <v>1</v>
       </c>
       <c r="J11" t="n">
-        <v>-21089.73501500078</v>
+        <v>-26015.0354189655</v>
       </c>
       <c r="K11" t="s"/>
       <c r="L11" t="s"/>
@@ -4392,22 +4368,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C12" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D12" t="s">
         <v>26</v>
       </c>
       <c r="E12" t="n">
-        <v>-12</v>
+        <v>-9</v>
       </c>
       <c r="F12" t="s">
         <v>20</v>
       </c>
       <c r="G12" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H12" t="n">
         <v>4</v>
@@ -4416,7 +4392,7 @@
         <v>1</v>
       </c>
       <c r="J12" t="n">
-        <v>-17729.07537012314</v>
+        <v>47422.54334754747</v>
       </c>
       <c r="K12" t="s"/>
       <c r="L12" t="s"/>
@@ -4433,22 +4409,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="C13" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="D13" t="s">
         <v>26</v>
       </c>
       <c r="E13" t="n">
-        <v>-13</v>
+        <v>-5</v>
       </c>
       <c r="F13" t="s">
         <v>20</v>
       </c>
       <c r="G13" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="H13" t="n">
         <v>4</v>
@@ -4457,7 +4433,7 @@
         <v>1</v>
       </c>
       <c r="J13" t="n">
-        <v>4761.3528204268</v>
+        <v>2928.030065019851</v>
       </c>
       <c r="K13" t="s"/>
       <c r="L13" t="s"/>
@@ -4573,32 +4549,32 @@
         <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.1124407266902454</v>
+        <v>-0.08555963600739029</v>
       </c>
       <c r="K2" t="s"/>
       <c r="L2" t="n">
-        <v>3.44843106290307e-07</v>
+        <v>3.480901073982094e-07</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0005872334342408537</v>
+        <v>0.0005899916163795969</v>
       </c>
       <c r="N2" t="n">
-        <v>0.9188293602739426</v>
+        <v>0.9180650673177778</v>
       </c>
       <c r="O2" t="n">
-        <v>0.9179382654266506</v>
+        <v>0.9171655820288512</v>
       </c>
       <c r="P2" t="n">
-        <v>4.408388361334526e-07</v>
+        <v>4.643401927686182e-07</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.000663956953524438</v>
+        <v>0.0006814251189739179</v>
       </c>
       <c r="R2" t="n">
-        <v>0.8390448867221667</v>
+        <v>0.8304642826343482</v>
       </c>
       <c r="S2" t="n">
-        <v>0.8315108175900128</v>
+        <v>0.8225285682044667</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -4630,7 +4606,7 @@
         <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>0.2127941409425242</v>
+        <v>0.2009088296259091</v>
       </c>
       <c r="K3" t="s"/>
       <c r="L3" t="s"/>
@@ -4647,22 +4623,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D4" t="s">
         <v>19</v>
       </c>
       <c r="E4" t="n">
-        <v>-8</v>
+        <v>-2</v>
       </c>
       <c r="F4" t="s">
         <v>20</v>
       </c>
       <c r="G4" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="H4" t="n">
         <v>4</v>
@@ -4671,7 +4647,7 @@
         <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>-7.150269512256029</v>
+        <v>-0.05464511531228083</v>
       </c>
       <c r="K4" t="s"/>
       <c r="L4" t="s"/>
@@ -4688,22 +4664,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="D5" t="s">
         <v>26</v>
       </c>
       <c r="E5" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="F5" t="s">
         <v>20</v>
       </c>
       <c r="G5" t="s">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="H5" t="n">
         <v>4</v>
@@ -4712,7 +4688,7 @@
         <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.06199719757233921</v>
+        <v>15.08680369454452</v>
       </c>
       <c r="K5" t="s"/>
       <c r="L5" t="s"/>
@@ -4729,22 +4705,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
+        <v>35</v>
+      </c>
+      <c r="C6" t="s">
         <v>30</v>
       </c>
-      <c r="C6" t="s">
-        <v>62</v>
-      </c>
       <c r="D6" t="s">
         <v>26</v>
       </c>
       <c r="E6" t="n">
-        <v>-1</v>
+        <v>-6</v>
       </c>
       <c r="F6" t="s">
         <v>20</v>
       </c>
       <c r="G6" t="s">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="H6" t="n">
         <v>4</v>
@@ -4753,7 +4729,7 @@
         <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>0.05951836843313668</v>
+        <v>-111.5931000717928</v>
       </c>
       <c r="K6" t="s"/>
       <c r="L6" t="s"/>
@@ -4770,22 +4746,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D7" t="s">
         <v>23</v>
       </c>
       <c r="E7" t="n">
-        <v>-7</v>
+        <v>-6</v>
       </c>
       <c r="F7" t="s">
         <v>20</v>
       </c>
       <c r="G7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H7" t="n">
         <v>1</v>
@@ -4794,7 +4770,7 @@
         <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>8.557833885813121</v>
+        <v>3.784293710522961</v>
       </c>
       <c r="K7" t="s"/>
       <c r="L7" t="s"/>
@@ -4811,22 +4787,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>64</v>
       </c>
       <c r="D8" t="s">
         <v>26</v>
       </c>
       <c r="E8" t="n">
-        <v>-11</v>
+        <v>-1</v>
       </c>
       <c r="F8" t="s">
         <v>20</v>
       </c>
       <c r="G8" t="s">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="H8" t="n">
         <v>4</v>
@@ -4835,7 +4811,7 @@
         <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>-91.72892660711653</v>
+        <v>0.04146438023278498</v>
       </c>
       <c r="K8" t="s"/>
       <c r="L8" t="s"/>
@@ -4852,22 +4828,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="C9" t="s">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="D9" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E9" t="n">
-        <v>-9</v>
+        <v>-8</v>
       </c>
       <c r="F9" t="s">
         <v>20</v>
       </c>
       <c r="G9" t="s">
-        <v>69</v>
+        <v>37</v>
       </c>
       <c r="H9" t="n">
         <v>4</v>
@@ -4876,7 +4852,7 @@
         <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>12.38169057623845</v>
+        <v>-463.8544056699665</v>
       </c>
       <c r="K9" t="s"/>
       <c r="L9" t="s"/>
@@ -4893,22 +4869,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C10" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="D10" t="s">
         <v>26</v>
       </c>
       <c r="E10" t="n">
-        <v>-9</v>
+        <v>-7</v>
       </c>
       <c r="F10" t="s">
         <v>20</v>
       </c>
       <c r="G10" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="H10" t="n">
         <v>4</v>
@@ -4917,7 +4893,7 @@
         <v>1</v>
       </c>
       <c r="J10" t="n">
-        <v>10.71683665418913</v>
+        <v>329.9197566634598</v>
       </c>
       <c r="K10" t="s"/>
       <c r="L10" t="s"/>
@@ -4934,22 +4910,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C11" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="D11" t="s">
         <v>26</v>
       </c>
       <c r="E11" t="n">
-        <v>-13</v>
+        <v>-11</v>
       </c>
       <c r="F11" t="s">
         <v>20</v>
       </c>
       <c r="G11" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="H11" t="n">
         <v>4</v>
@@ -4958,7 +4934,7 @@
         <v>1</v>
       </c>
       <c r="J11" t="n">
-        <v>-70.27044645442751</v>
+        <v>-44.07400504176402</v>
       </c>
       <c r="K11" t="s"/>
       <c r="L11" t="s"/>
@@ -4975,22 +4951,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C12" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D12" t="s">
         <v>26</v>
       </c>
       <c r="E12" t="n">
-        <v>-12</v>
+        <v>-9</v>
       </c>
       <c r="F12" t="s">
         <v>20</v>
       </c>
       <c r="G12" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H12" t="n">
         <v>4</v>
@@ -4999,7 +4975,7 @@
         <v>1</v>
       </c>
       <c r="J12" t="n">
-        <v>150.5141370678372</v>
+        <v>273.8352721773092</v>
       </c>
       <c r="K12" t="s"/>
       <c r="L12" t="s"/>
@@ -5115,32 +5091,32 @@
         <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.1122652297154859</v>
+        <v>-0.08739344054349693</v>
       </c>
       <c r="K2" t="s"/>
       <c r="L2" t="n">
-        <v>3.474414350489722e-07</v>
+        <v>3.562215282477446e-07</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0005894416298913508</v>
+        <v>0.0005968429678296835</v>
       </c>
       <c r="N2" t="n">
-        <v>0.9182177545793172</v>
+        <v>0.9161510588304429</v>
       </c>
       <c r="O2" t="n">
-        <v>0.9174023782540861</v>
+        <v>0.9153150773631492</v>
       </c>
       <c r="P2" t="n">
-        <v>4.323838468516639e-07</v>
+        <v>4.517767695901445e-07</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.0006575590063649527</v>
+        <v>0.00067214341445122</v>
       </c>
       <c r="R2" t="n">
-        <v>0.8421318964093104</v>
+        <v>0.8350513267763403</v>
       </c>
       <c r="S2" t="n">
-        <v>0.8354425699859761</v>
+        <v>0.8280619762160157</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -5172,7 +5148,7 @@
         <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>0.2128246669606695</v>
+        <v>0.2040125190797504</v>
       </c>
       <c r="K3" t="s"/>
       <c r="L3" t="s"/>
@@ -5189,22 +5165,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D4" t="s">
         <v>19</v>
       </c>
       <c r="E4" t="n">
-        <v>-8</v>
+        <v>-2</v>
       </c>
       <c r="F4" t="s">
         <v>20</v>
       </c>
       <c r="G4" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="H4" t="n">
         <v>4</v>
@@ -5213,7 +5189,7 @@
         <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>-7.527612790718563</v>
+        <v>-0.05364233009196163</v>
       </c>
       <c r="K4" t="s"/>
       <c r="L4" t="s"/>
@@ -5230,22 +5206,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C5" t="s">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="D5" t="s">
         <v>26</v>
       </c>
       <c r="E5" t="n">
-        <v>-5</v>
+        <v>-4</v>
       </c>
       <c r="F5" t="s">
         <v>20</v>
       </c>
       <c r="G5" t="s">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="H5" t="n">
         <v>4</v>
@@ -5254,7 +5230,7 @@
         <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.9761595194833127</v>
+        <v>-1.466276561340633</v>
       </c>
       <c r="K5" t="s"/>
       <c r="L5" t="s"/>
@@ -5271,22 +5247,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
+        <v>35</v>
+      </c>
+      <c r="C6" t="s">
         <v>30</v>
       </c>
-      <c r="C6" t="s">
-        <v>62</v>
-      </c>
       <c r="D6" t="s">
         <v>26</v>
       </c>
       <c r="E6" t="n">
-        <v>-1</v>
+        <v>-6</v>
       </c>
       <c r="F6" t="s">
         <v>20</v>
       </c>
       <c r="G6" t="s">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="H6" t="n">
         <v>4</v>
@@ -5295,7 +5271,7 @@
         <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>0.05942350574689764</v>
+        <v>6.620300224704793</v>
       </c>
       <c r="K6" t="s"/>
       <c r="L6" t="s"/>
@@ -5312,22 +5288,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D7" t="s">
         <v>23</v>
       </c>
       <c r="E7" t="n">
-        <v>-7</v>
+        <v>-6</v>
       </c>
       <c r="F7" t="s">
         <v>20</v>
       </c>
       <c r="G7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H7" t="n">
         <v>1</v>
@@ -5336,7 +5312,7 @@
         <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>8.578712815308304</v>
+        <v>3.740591069074746</v>
       </c>
       <c r="K7" t="s"/>
       <c r="L7" t="s"/>
@@ -5353,22 +5329,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C8" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="D8" t="s">
         <v>26</v>
       </c>
       <c r="E8" t="n">
-        <v>-7</v>
+        <v>-1</v>
       </c>
       <c r="F8" t="s">
         <v>20</v>
       </c>
       <c r="G8" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="H8" t="n">
         <v>4</v>
@@ -5377,7 +5353,7 @@
         <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>-5.605920802217707</v>
+        <v>0.03854917509393316</v>
       </c>
       <c r="K8" t="s"/>
       <c r="L8" t="s"/>
@@ -5394,22 +5370,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="C9" t="s">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="D9" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E9" t="n">
-        <v>-9</v>
+        <v>-8</v>
       </c>
       <c r="F9" t="s">
         <v>20</v>
       </c>
       <c r="G9" t="s">
-        <v>69</v>
+        <v>37</v>
       </c>
       <c r="H9" t="n">
         <v>4</v>
@@ -5418,7 +5394,7 @@
         <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>13.0712457878897</v>
+        <v>4.553705206168271</v>
       </c>
       <c r="K9" t="s"/>
       <c r="L9" t="s"/>
@@ -5435,22 +5411,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C10" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="D10" t="s">
         <v>26</v>
       </c>
       <c r="E10" t="n">
-        <v>-8</v>
+        <v>-7</v>
       </c>
       <c r="F10" t="s">
         <v>20</v>
       </c>
       <c r="G10" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="H10" t="n">
         <v>4</v>
@@ -5459,7 +5435,7 @@
         <v>1</v>
       </c>
       <c r="J10" t="n">
-        <v>2.487304525544291</v>
+        <v>-10.05281729479749</v>
       </c>
       <c r="K10" t="s"/>
       <c r="L10" t="s"/>
@@ -5476,22 +5452,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C11" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>26</v>
       </c>
       <c r="E11" t="n">
-        <v>-6</v>
+        <v>-3</v>
       </c>
       <c r="F11" t="s">
         <v>20</v>
       </c>
       <c r="G11" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="H11" t="n">
         <v>4</v>
@@ -5500,7 +5476,7 @@
         <v>1</v>
       </c>
       <c r="J11" t="n">
-        <v>4.158379288272424</v>
+        <v>0.4584562853670828</v>
       </c>
       <c r="K11" t="s"/>
       <c r="L11" t="s"/>
@@ -5616,32 +5592,32 @@
         <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.1117057065599381</v>
+        <v>-0.1052004438756737</v>
       </c>
       <c r="K2" t="s"/>
       <c r="L2" t="n">
-        <v>3.492491471466813e-07</v>
+        <v>3.512526598062579e-07</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0005909730511171226</v>
+        <v>0.0005926657234953426</v>
       </c>
       <c r="N2" t="n">
-        <v>0.9177922476031445</v>
+        <v>0.9173206522564183</v>
       </c>
       <c r="O2" t="n">
-        <v>0.9170553255199058</v>
+        <v>0.9165795027248523</v>
       </c>
       <c r="P2" t="n">
-        <v>4.237173213404723e-07</v>
+        <v>4.326711532542829e-07</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.0006509357275034704</v>
+        <v>0.0006577774344368183</v>
       </c>
       <c r="R2" t="n">
-        <v>0.8452961403030966</v>
+        <v>0.8420269976780993</v>
       </c>
       <c r="S2" t="n">
-        <v>0.8394213101880243</v>
+        <v>0.8360280229063816</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -5673,7 +5649,7 @@
         <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>0.2124963416549809</v>
+        <v>0.2026727299691489</v>
       </c>
       <c r="K3" t="s"/>
       <c r="L3" t="s"/>
@@ -5690,7 +5666,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C4" t="s">
         <v>66</v>
@@ -5699,7 +5675,7 @@
         <v>19</v>
       </c>
       <c r="E4" t="n">
-        <v>-8</v>
+        <v>-14</v>
       </c>
       <c r="F4" t="s">
         <v>20</v>
@@ -5714,7 +5690,7 @@
         <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>-8.049169177067858</v>
+        <v>22.21520750236856</v>
       </c>
       <c r="K4" t="s"/>
       <c r="L4" t="s"/>
@@ -5731,22 +5707,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C5" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="D5" t="s">
         <v>26</v>
       </c>
       <c r="E5" t="n">
-        <v>-5</v>
+        <v>-10</v>
       </c>
       <c r="F5" t="s">
         <v>20</v>
       </c>
       <c r="G5" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="H5" t="n">
         <v>4</v>
@@ -5755,7 +5731,7 @@
         <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>0.2849989310683671</v>
+        <v>2.384574723521656</v>
       </c>
       <c r="K5" t="s"/>
       <c r="L5" t="s"/>
@@ -5772,22 +5748,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="C6" t="s">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="D6" t="s">
         <v>26</v>
       </c>
       <c r="E6" t="n">
-        <v>-1</v>
+        <v>-9</v>
       </c>
       <c r="F6" t="s">
         <v>20</v>
       </c>
       <c r="G6" t="s">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="H6" t="n">
         <v>4</v>
@@ -5796,7 +5772,7 @@
         <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>0.05966549421533343</v>
+        <v>-4.289014303856963</v>
       </c>
       <c r="K6" t="s"/>
       <c r="L6" t="s"/>
@@ -5813,22 +5789,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D7" t="s">
         <v>23</v>
       </c>
       <c r="E7" t="n">
-        <v>-7</v>
+        <v>-6</v>
       </c>
       <c r="F7" t="s">
         <v>20</v>
       </c>
       <c r="G7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H7" t="n">
         <v>1</v>
@@ -5837,7 +5813,7 @@
         <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>8.529929023413235</v>
+        <v>3.700167494765108</v>
       </c>
       <c r="K7" t="s"/>
       <c r="L7" t="s"/>
@@ -5854,22 +5830,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>64</v>
       </c>
       <c r="D8" t="s">
         <v>26</v>
       </c>
       <c r="E8" t="n">
-        <v>-6</v>
+        <v>-1</v>
       </c>
       <c r="F8" t="s">
         <v>20</v>
       </c>
       <c r="G8" t="s">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="H8" t="n">
         <v>4</v>
@@ -5878,7 +5854,7 @@
         <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>-0.2282188648976017</v>
+        <v>0.05504562985119554</v>
       </c>
       <c r="K8" t="s"/>
       <c r="L8" t="s"/>
@@ -5895,7 +5871,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C9" t="s">
         <v>68</v>
@@ -5904,7 +5880,7 @@
         <v>19</v>
       </c>
       <c r="E9" t="n">
-        <v>-9</v>
+        <v>-4</v>
       </c>
       <c r="F9" t="s">
         <v>20</v>
@@ -5919,7 +5895,7 @@
         <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>14.02383209502069</v>
+        <v>-0.117430678242022</v>
       </c>
       <c r="K9" t="s"/>
       <c r="L9" t="s"/>
@@ -5936,22 +5912,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="D10" t="s">
         <v>26</v>
       </c>
       <c r="E10" t="n">
-        <v>-3</v>
+        <v>-8</v>
       </c>
       <c r="F10" t="s">
         <v>20</v>
       </c>
       <c r="G10" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="H10" t="n">
         <v>4</v>
@@ -5960,7 +5936,7 @@
         <v>1</v>
       </c>
       <c r="J10" t="n">
-        <v>-0.04168264542500747</v>
+        <v>1.991004443041227</v>
       </c>
       <c r="K10" t="s"/>
       <c r="L10" t="s"/>
@@ -6076,32 +6052,32 @@
         <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.1054111060522004</v>
+        <v>-0.1023971183867439</v>
       </c>
       <c r="K2" t="s"/>
       <c r="L2" t="n">
-        <v>3.519119589520988e-07</v>
+        <v>3.52633899061496e-07</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0005932216777496409</v>
+        <v>0.0005938298569973525</v>
       </c>
       <c r="N2" t="n">
-        <v>0.9171654636142139</v>
+        <v>0.9169955302750962</v>
       </c>
       <c r="O2" t="n">
-        <v>0.9165060842200983</v>
+        <v>0.9163347981777835</v>
       </c>
       <c r="P2" t="n">
-        <v>4.263234908003915e-07</v>
+        <v>4.250948160178452e-07</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.0006529345225980869</v>
+        <v>0.0006519929570308603</v>
       </c>
       <c r="R2" t="n">
-        <v>0.844344599135985</v>
+        <v>0.8447932018283906</v>
       </c>
       <c r="S2" t="n">
-        <v>0.8391124848212282</v>
+        <v>0.8395761665957314</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -6133,7 +6109,7 @@
         <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>0.2062430047346796</v>
+        <v>0.1992886423817981</v>
       </c>
       <c r="K3" t="s"/>
       <c r="L3" t="s"/>
@@ -6150,22 +6126,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D4" t="s">
         <v>19</v>
       </c>
       <c r="E4" t="n">
-        <v>-9</v>
+        <v>-12</v>
       </c>
       <c r="F4" t="s">
         <v>20</v>
       </c>
       <c r="G4" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H4" t="n">
         <v>4</v>
@@ -6174,7 +6150,7 @@
         <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>2.247876562259365</v>
+        <v>7.7509136153322</v>
       </c>
       <c r="K4" t="s"/>
       <c r="L4" t="s"/>
@@ -6191,22 +6167,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C5" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="D5" t="s">
         <v>26</v>
       </c>
       <c r="E5" t="n">
-        <v>-7</v>
+        <v>-5</v>
       </c>
       <c r="F5" t="s">
         <v>20</v>
       </c>
       <c r="G5" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="H5" t="n">
         <v>4</v>
@@ -6215,7 +6191,7 @@
         <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.2246900334974519</v>
+        <v>0.07986901786707684</v>
       </c>
       <c r="K5" t="s"/>
       <c r="L5" t="s"/>
@@ -6232,22 +6208,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="C6" t="s">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="D6" t="s">
         <v>26</v>
       </c>
       <c r="E6" t="n">
-        <v>-1</v>
+        <v>-8</v>
       </c>
       <c r="F6" t="s">
         <v>20</v>
       </c>
       <c r="G6" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="H6" t="n">
         <v>4</v>
@@ -6256,7 +6232,7 @@
         <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>0.05399786990992256</v>
+        <v>-0.06019880890117709</v>
       </c>
       <c r="K6" t="s"/>
       <c r="L6" t="s"/>
@@ -6273,22 +6249,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D7" t="s">
         <v>23</v>
       </c>
       <c r="E7" t="n">
-        <v>-7</v>
+        <v>-6</v>
       </c>
       <c r="F7" t="s">
         <v>20</v>
       </c>
       <c r="G7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H7" t="n">
         <v>1</v>
@@ -6297,7 +6273,7 @@
         <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>9.275275279729362</v>
+        <v>3.805944977867581</v>
       </c>
       <c r="K7" t="s"/>
       <c r="L7" t="s"/>
@@ -6314,22 +6290,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>64</v>
       </c>
       <c r="D8" t="s">
         <v>26</v>
       </c>
       <c r="E8" t="n">
-        <v>-6</v>
+        <v>-1</v>
       </c>
       <c r="F8" t="s">
         <v>20</v>
       </c>
       <c r="G8" t="s">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="H8" t="n">
         <v>4</v>
@@ -6338,7 +6314,7 @@
         <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>0.2391730549973625</v>
+        <v>0.05311425566606229</v>
       </c>
       <c r="K8" t="s"/>
       <c r="L8" t="s"/>
@@ -6355,22 +6331,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D9" t="s">
         <v>19</v>
       </c>
       <c r="E9" t="n">
-        <v>-5</v>
+        <v>-4</v>
       </c>
       <c r="F9" t="s">
         <v>20</v>
       </c>
       <c r="G9" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="H9" t="n">
         <v>4</v>
@@ -6379,7 +6355,7 @@
         <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>-0.3221165553765343</v>
+        <v>-0.137075034619568</v>
       </c>
       <c r="K9" t="s"/>
       <c r="L9" t="s"/>
@@ -6495,32 +6471,32 @@
         <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.1055676027133124</v>
+        <v>-0.1120618603706032</v>
       </c>
       <c r="K2" t="s"/>
       <c r="L2" t="n">
-        <v>3.574338870671488e-07</v>
+        <v>3.647228534660544e-07</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0005978577481869318</v>
+        <v>0.0006039228870195717</v>
       </c>
       <c r="N2" t="n">
-        <v>0.9158656886457024</v>
+        <v>0.9141499806766331</v>
       </c>
       <c r="O2" t="n">
-        <v>0.9152802610319051</v>
+        <v>0.9135526147370073</v>
       </c>
       <c r="P2" t="n">
-        <v>4.226408811630477e-07</v>
+        <v>4.364893246930731e-07</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.0006501083610930163</v>
+        <v>0.0006606733873050079</v>
       </c>
       <c r="R2" t="n">
-        <v>0.8456891604648723</v>
+        <v>0.8406329412427933</v>
       </c>
       <c r="S2" t="n">
-        <v>0.8411695961270234</v>
+        <v>0.8359652868022056</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -6552,7 +6528,7 @@
         <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>0.2104024821857252</v>
+        <v>0.2191862091247359</v>
       </c>
       <c r="K3" t="s"/>
       <c r="L3" t="s"/>
@@ -6569,22 +6545,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="D4" t="s">
         <v>19</v>
       </c>
       <c r="E4" t="n">
-        <v>-12</v>
+        <v>-3</v>
       </c>
       <c r="F4" t="s">
         <v>20</v>
       </c>
       <c r="G4" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="H4" t="n">
         <v>4</v>
@@ -6593,7 +6569,7 @@
         <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>6.688366154452487</v>
+        <v>-0.04031999299249211</v>
       </c>
       <c r="K4" t="s"/>
       <c r="L4" t="s"/>
@@ -6610,22 +6586,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="C5" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E5" t="n">
-        <v>-4</v>
+        <v>-7</v>
       </c>
       <c r="F5" t="s">
         <v>20</v>
       </c>
       <c r="G5" t="s">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="H5" t="n">
         <v>4</v>
@@ -6634,7 +6610,7 @@
         <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.1248536666834929</v>
+        <v>0.2860200476844896</v>
       </c>
       <c r="K5" t="s"/>
       <c r="L5" t="s"/>
@@ -6651,22 +6627,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="C6" t="s">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="D6" t="s">
         <v>26</v>
       </c>
       <c r="E6" t="n">
-        <v>-1</v>
+        <v>-8</v>
       </c>
       <c r="F6" t="s">
         <v>20</v>
       </c>
       <c r="G6" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="H6" t="n">
         <v>4</v>
@@ -6675,7 +6651,7 @@
         <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>0.05335824031141853</v>
+        <v>-0.2790929116622977</v>
       </c>
       <c r="K6" t="s"/>
       <c r="L6" t="s"/>
@@ -6692,22 +6668,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D7" t="s">
         <v>23</v>
       </c>
       <c r="E7" t="n">
-        <v>-7</v>
+        <v>-6</v>
       </c>
       <c r="F7" t="s">
         <v>20</v>
       </c>
       <c r="G7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H7" t="n">
         <v>1</v>
@@ -6716,7 +6692,7 @@
         <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>9.069479114499357</v>
+        <v>3.186856145545562</v>
       </c>
       <c r="K7" t="s"/>
       <c r="L7" t="s"/>
@@ -6733,22 +6709,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>64</v>
       </c>
       <c r="D8" t="s">
         <v>26</v>
       </c>
       <c r="E8" t="n">
-        <v>-4</v>
+        <v>-1</v>
       </c>
       <c r="F8" t="s">
         <v>20</v>
       </c>
       <c r="G8" t="s">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="H8" t="n">
         <v>4</v>
@@ -6757,7 +6733,7 @@
         <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>0.03957137581945917</v>
+        <v>0.05851609786628512</v>
       </c>
       <c r="K8" t="s"/>
       <c r="L8" t="s"/>
